--- a/data-storm-4/Day 4/submission_all.xlsx
+++ b/data-storm-4/Day 4/submission_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Competitions Participated\DataStorm4.0\DataStorm-4.0\data-storm-4\Day 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D24A0A-E8DC-41B2-B0AA-4493019F2335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0820C3D-28EC-4B47-9F32-13C4DBE69160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1080" windowWidth="20136" windowHeight="11880" xr2:uid="{5865C1B0-266D-45C1-B92F-3AF23D9A4D05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="33">
   <si>
     <t>shop_id</t>
   </si>
@@ -150,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +175,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -188,11 +206,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8612D1A9-5B64-4455-829C-8F6F6E46A273}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,7 +539,7 @@
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -557,8 +578,17 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -577,8 +607,17 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -597,8 +636,17 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -617,8 +665,17 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -637,8 +694,17 @@
       <c r="F6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -657,8 +723,17 @@
       <c r="F7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -677,8 +752,17 @@
       <c r="F8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -697,8 +781,17 @@
       <c r="F9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -717,8 +810,17 @@
       <c r="F10" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -737,11 +839,20 @@
       <c r="F11" t="s">
         <v>5</v>
       </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
       <c r="H11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -760,8 +871,17 @@
       <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -780,8 +900,17 @@
       <c r="F13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -800,8 +929,17 @@
       <c r="F14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -820,8 +958,17 @@
       <c r="F15" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -840,8 +987,17 @@
       <c r="F16" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -860,8 +1016,17 @@
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -880,8 +1045,17 @@
       <c r="F18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -900,8 +1074,17 @@
       <c r="F19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -920,8 +1103,17 @@
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -940,8 +1132,17 @@
       <c r="F21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -960,8 +1161,17 @@
       <c r="F22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -980,8 +1190,17 @@
       <c r="F23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1000,8 +1219,17 @@
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1020,8 +1248,17 @@
       <c r="F25" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>11</v>
       </c>
